--- a/Code/Results/Cases/Case_0_212/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_212/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.8667929700279953</v>
+        <v>1.062039498880902</v>
       </c>
       <c r="D2">
-        <v>0.885129937675968</v>
+        <v>1.060899797914149</v>
       </c>
       <c r="E2">
-        <v>0.8892048892920769</v>
+        <v>1.065227820450102</v>
       </c>
       <c r="F2">
-        <v>0.8746144324774126</v>
+        <v>1.070366925779918</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.0223130473867</v>
+        <v>1.027760580862774</v>
       </c>
       <c r="J2">
-        <v>0.8938462744473543</v>
+        <v>1.067012076820579</v>
       </c>
       <c r="K2">
-        <v>0.8984611528064365</v>
+        <v>1.063625321556726</v>
       </c>
       <c r="L2">
-        <v>0.9024588924097438</v>
+        <v>1.06794162736605</v>
       </c>
       <c r="M2">
-        <v>0.888149259245326</v>
+        <v>1.073066953298517</v>
       </c>
       <c r="N2">
-        <v>0.8951156386826701</v>
+        <v>1.06852735635766</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9041509310779436</v>
+        <v>1.065498731364662</v>
       </c>
       <c r="D3">
-        <v>0.9187914626641465</v>
+        <v>1.064061909235623</v>
       </c>
       <c r="E3">
-        <v>0.9233576832563181</v>
+        <v>1.068350223308369</v>
       </c>
       <c r="F3">
-        <v>0.913799225500431</v>
+        <v>1.073731499996781</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.029614080885042</v>
+        <v>1.028098158500023</v>
       </c>
       <c r="J3">
-        <v>0.9276455946937346</v>
+        <v>1.070113658257546</v>
       </c>
       <c r="K3">
-        <v>0.9305809007246079</v>
+        <v>1.066596039514865</v>
       </c>
       <c r="L3">
-        <v>0.9350751900143199</v>
+        <v>1.070873631715965</v>
       </c>
       <c r="M3">
-        <v>0.9256683610825828</v>
+        <v>1.076241584240708</v>
       </c>
       <c r="N3">
-        <v>0.9289629578406365</v>
+        <v>1.071633342396024</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9239657898736562</v>
+        <v>1.067707034638981</v>
       </c>
       <c r="D4">
-        <v>0.9366676990248088</v>
+        <v>1.066080400508695</v>
       </c>
       <c r="E4">
-        <v>0.9414540787289282</v>
+        <v>1.070340970312035</v>
       </c>
       <c r="F4">
-        <v>0.9344441861098154</v>
+        <v>1.075870741121192</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.03344347882112</v>
+        <v>1.028304821017455</v>
       </c>
       <c r="J4">
-        <v>0.945536936712611</v>
+        <v>1.072091078032288</v>
       </c>
       <c r="K4">
-        <v>0.9475957733841438</v>
+        <v>1.06849060170308</v>
       </c>
       <c r="L4">
-        <v>0.9523145296312633</v>
+        <v>1.072741083629925</v>
       </c>
       <c r="M4">
-        <v>0.9454039732199345</v>
+        <v>1.078257889241557</v>
       </c>
       <c r="N4">
-        <v>0.9468797076173455</v>
+        <v>1.07361357033366</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9315878608076253</v>
+        <v>1.06862841044887</v>
       </c>
       <c r="D5">
-        <v>0.9435476563985759</v>
+        <v>1.066922546567713</v>
       </c>
       <c r="E5">
-        <v>0.9484104559034493</v>
+        <v>1.071170965299074</v>
       </c>
       <c r="F5">
-        <v>0.9423569285853078</v>
+        <v>1.07676122758596</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.034903107526435</v>
+        <v>1.02838891310831</v>
       </c>
       <c r="J5">
-        <v>0.9524111004030601</v>
+        <v>1.072915505049633</v>
       </c>
       <c r="K5">
-        <v>0.9541356535105974</v>
+        <v>1.069280621803646</v>
       </c>
       <c r="L5">
-        <v>0.9589327312898313</v>
+        <v>1.073519216799699</v>
       </c>
       <c r="M5">
-        <v>0.9529611487656142</v>
+        <v>1.079096679093159</v>
       </c>
       <c r="N5">
-        <v>0.9537636334087126</v>
+        <v>1.074439168131932</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9328322861921362</v>
+        <v>1.068782708964313</v>
       </c>
       <c r="D6">
-        <v>0.9446710994863988</v>
+        <v>1.067063574805807</v>
       </c>
       <c r="E6">
-        <v>0.9495459168410474</v>
+        <v>1.071309924832661</v>
       </c>
       <c r="F6">
-        <v>0.9436472154517945</v>
+        <v>1.07691023122941</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.035140561917677</v>
+        <v>1.028402869827211</v>
       </c>
       <c r="J6">
-        <v>0.953532959635904</v>
+        <v>1.073053531736199</v>
       </c>
       <c r="K6">
-        <v>0.9552030926468642</v>
+        <v>1.069412896161508</v>
       </c>
       <c r="L6">
-        <v>0.9600125109086285</v>
+        <v>1.073649466661693</v>
       </c>
       <c r="M6">
-        <v>0.9541930527294089</v>
+        <v>1.079237001609822</v>
       </c>
       <c r="N6">
-        <v>0.9548870858103461</v>
+        <v>1.074577390832225</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.924070123126046</v>
+        <v>1.067719373333542</v>
       </c>
       <c r="D7">
-        <v>0.9367618609971077</v>
+        <v>1.066091678326313</v>
       </c>
       <c r="E7">
-        <v>0.9415493188586908</v>
+        <v>1.070352087677126</v>
       </c>
       <c r="F7">
-        <v>0.9345526096303678</v>
+        <v>1.075882674343561</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.033463516013487</v>
+        <v>1.028305955580028</v>
       </c>
       <c r="J7">
-        <v>0.9456310641351798</v>
+        <v>1.07210212086123</v>
       </c>
       <c r="K7">
-        <v>0.9476853140048437</v>
+        <v>1.068501183121605</v>
       </c>
       <c r="L7">
-        <v>0.9524051735610921</v>
+        <v>1.072751508134857</v>
       </c>
       <c r="M7">
-        <v>0.9455075525584452</v>
+        <v>1.078269131756515</v>
       </c>
       <c r="N7">
-        <v>0.9469739687116506</v>
+        <v>1.073624628844685</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.880613116688197</v>
+        <v>1.063214907838218</v>
       </c>
       <c r="D8">
-        <v>0.8975758414831295</v>
+        <v>1.061974275892833</v>
       </c>
       <c r="E8">
-        <v>0.9018434100215459</v>
+        <v>1.066289305463967</v>
       </c>
       <c r="F8">
-        <v>0.8891475554649447</v>
+        <v>1.071511971231653</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.02502125094021</v>
+        <v>1.027877122865667</v>
       </c>
       <c r="J8">
-        <v>0.9063590043528957</v>
+        <v>1.068066494930347</v>
       </c>
       <c r="K8">
-        <v>0.9103485955857405</v>
+        <v>1.064635131215362</v>
       </c>
       <c r="L8">
-        <v>0.9145404372298193</v>
+        <v>1.068938782257584</v>
       </c>
       <c r="M8">
-        <v>0.9020726479012794</v>
+        <v>1.074147808453698</v>
       </c>
       <c r="N8">
-        <v>0.9076461380999077</v>
+        <v>1.069583271862087</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.880613116688197</v>
+        <v>1.055037920347559</v>
       </c>
       <c r="D9">
-        <v>0.8975758414831295</v>
+        <v>1.054498924588384</v>
       </c>
       <c r="E9">
-        <v>0.9018434100215459</v>
+        <v>1.058894327069477</v>
       </c>
       <c r="F9">
-        <v>0.8891475554649447</v>
+        <v>1.063510135461595</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.02502125094021</v>
+        <v>1.027029869630035</v>
       </c>
       <c r="J9">
-        <v>0.9063590043528957</v>
+        <v>1.060720490415538</v>
       </c>
       <c r="K9">
-        <v>0.9103485955857405</v>
+        <v>1.057602314317832</v>
       </c>
       <c r="L9">
-        <v>0.9145404372298193</v>
+        <v>1.061983985809324</v>
       </c>
       <c r="M9">
-        <v>0.9020726479012794</v>
+        <v>1.066585508068448</v>
       </c>
       <c r="N9">
-        <v>0.9076461380999077</v>
+        <v>1.062226835178269</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.880613116688197</v>
+        <v>1.049411762072623</v>
       </c>
       <c r="D10">
-        <v>0.8975758414831295</v>
+        <v>1.049354940323541</v>
       </c>
       <c r="E10">
-        <v>0.9018434100215459</v>
+        <v>1.053792983268282</v>
       </c>
       <c r="F10">
-        <v>0.8891475554649447</v>
+        <v>1.057958910695703</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.02502125094021</v>
+        <v>1.026401297602511</v>
       </c>
       <c r="J10">
-        <v>0.9063590043528957</v>
+        <v>1.055652561938521</v>
       </c>
       <c r="K10">
-        <v>0.9103485955857405</v>
+        <v>1.052753492176318</v>
       </c>
       <c r="L10">
-        <v>0.9145404372298193</v>
+        <v>1.057176191353614</v>
       </c>
       <c r="M10">
-        <v>0.9020726479012794</v>
+        <v>1.061327844622511</v>
       </c>
       <c r="N10">
-        <v>0.9076461380999077</v>
+        <v>1.057151709661515</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.880613116688197</v>
+        <v>1.046930836112355</v>
       </c>
       <c r="D11">
-        <v>0.8975758414831295</v>
+        <v>1.047086516638081</v>
       </c>
       <c r="E11">
-        <v>0.9018434100215459</v>
+        <v>1.051540360468183</v>
       </c>
       <c r="F11">
-        <v>0.8891475554649447</v>
+        <v>1.055500227492829</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.02502125094021</v>
+        <v>1.026113475722859</v>
       </c>
       <c r="J11">
-        <v>0.9063590043528957</v>
+        <v>1.053414594055205</v>
       </c>
       <c r="K11">
-        <v>0.9103485955857405</v>
+        <v>1.050613001414127</v>
       </c>
       <c r="L11">
-        <v>0.9145404372298193</v>
+        <v>1.055050793492065</v>
       </c>
       <c r="M11">
-        <v>0.9020726479012794</v>
+        <v>1.058996514564633</v>
       </c>
       <c r="N11">
-        <v>0.9076461380999077</v>
+        <v>1.054910563607106</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.880613116688197</v>
+        <v>1.046002289135736</v>
       </c>
       <c r="D12">
-        <v>0.8975758414831295</v>
+        <v>1.046237487754847</v>
       </c>
       <c r="E12">
-        <v>0.9018434100215459</v>
+        <v>1.050696794293894</v>
       </c>
       <c r="F12">
-        <v>0.8891475554649447</v>
+        <v>1.054578382908434</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.02502125094021</v>
+        <v>1.026004166662352</v>
       </c>
       <c r="J12">
-        <v>0.9063590043528957</v>
+        <v>1.052576499725328</v>
       </c>
       <c r="K12">
-        <v>0.9103485955857405</v>
+        <v>1.049811519557837</v>
       </c>
       <c r="L12">
-        <v>0.9145404372298193</v>
+        <v>1.05425451000126</v>
       </c>
       <c r="M12">
-        <v>0.9020726479012794</v>
+        <v>1.05812202038228</v>
       </c>
       <c r="N12">
-        <v>0.9076461380999077</v>
+        <v>1.05407127908715</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.880613116688197</v>
+        <v>1.04620178823427</v>
       </c>
       <c r="D13">
-        <v>0.8975758414831295</v>
+        <v>1.046419903021902</v>
       </c>
       <c r="E13">
-        <v>0.9018434100215459</v>
+        <v>1.050878056292221</v>
       </c>
       <c r="F13">
-        <v>0.8891475554649447</v>
+        <v>1.05477651534342</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.02502125094021</v>
+        <v>1.026027723210624</v>
       </c>
       <c r="J13">
-        <v>0.9063590043528957</v>
+        <v>1.052756586703609</v>
       </c>
       <c r="K13">
-        <v>0.9103485955857405</v>
+        <v>1.04998373446759</v>
       </c>
       <c r="L13">
-        <v>0.9145404372298193</v>
+        <v>1.054425628405317</v>
       </c>
       <c r="M13">
-        <v>0.9020726479012794</v>
+        <v>1.058309993760818</v>
       </c>
       <c r="N13">
-        <v>0.9076461380999077</v>
+        <v>1.054251621809597</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.880613116688197</v>
+        <v>1.046854227113049</v>
       </c>
       <c r="D14">
-        <v>0.8975758414831295</v>
+        <v>1.047016468529913</v>
       </c>
       <c r="E14">
-        <v>0.9018434100215459</v>
+        <v>1.051470772239406</v>
       </c>
       <c r="F14">
-        <v>0.8891475554649447</v>
+        <v>1.055424204490692</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.02502125094021</v>
+        <v>1.026104489436773</v>
       </c>
       <c r="J14">
-        <v>0.9063590043528957</v>
+        <v>1.053345457549602</v>
       </c>
       <c r="K14">
-        <v>0.9103485955857405</v>
+        <v>1.050546882957989</v>
       </c>
       <c r="L14">
-        <v>0.9145404372298193</v>
+        <v>1.054985113091988</v>
       </c>
       <c r="M14">
-        <v>0.9020726479012794</v>
+        <v>1.058924404569219</v>
       </c>
       <c r="N14">
-        <v>0.9076461380999077</v>
+        <v>1.054841328919735</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.880613116688197</v>
+        <v>1.047255276831293</v>
       </c>
       <c r="D15">
-        <v>0.8975758414831295</v>
+        <v>1.047383171200181</v>
       </c>
       <c r="E15">
-        <v>0.9018434100215459</v>
+        <v>1.051835049010283</v>
       </c>
       <c r="F15">
-        <v>0.8891475554649447</v>
+        <v>1.055822120256954</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.02502125094021</v>
+        <v>1.026151468218869</v>
       </c>
       <c r="J15">
-        <v>0.9063590043528957</v>
+        <v>1.053707368998242</v>
       </c>
       <c r="K15">
-        <v>0.9103485955857405</v>
+        <v>1.050893000134044</v>
       </c>
       <c r="L15">
-        <v>0.9145404372298193</v>
+        <v>1.055328918641205</v>
       </c>
       <c r="M15">
-        <v>0.9020726479012794</v>
+        <v>1.059301822820091</v>
       </c>
       <c r="N15">
-        <v>0.9076461380999077</v>
+        <v>1.055203754324144</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.880613116688197</v>
+        <v>1.049575444997431</v>
       </c>
       <c r="D16">
-        <v>0.8975758414831295</v>
+        <v>1.049504600751038</v>
       </c>
       <c r="E16">
-        <v>0.9018434100215459</v>
+        <v>1.05394153840813</v>
       </c>
       <c r="F16">
-        <v>0.8891475554649447</v>
+        <v>1.058120900239524</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.02502125094021</v>
+        <v>1.026420065676154</v>
       </c>
       <c r="J16">
-        <v>0.9063590043528957</v>
+        <v>1.055800148431029</v>
       </c>
       <c r="K16">
-        <v>0.9103485955857405</v>
+        <v>1.052894665454154</v>
       </c>
       <c r="L16">
-        <v>0.9145404372298193</v>
+        <v>1.057316306134181</v>
       </c>
       <c r="M16">
-        <v>0.9020726479012794</v>
+        <v>1.061481388026169</v>
       </c>
       <c r="N16">
-        <v>0.9076461380999077</v>
+        <v>1.057299505743771</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.880613116688197</v>
+        <v>1.051018637315916</v>
       </c>
       <c r="D17">
-        <v>0.8975758414831295</v>
+        <v>1.050824143368992</v>
       </c>
       <c r="E17">
-        <v>0.9018434100215459</v>
+        <v>1.055250992221271</v>
       </c>
       <c r="F17">
-        <v>0.8891475554649447</v>
+        <v>1.059547926353391</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.02502125094021</v>
+        <v>1.026584327587963</v>
       </c>
       <c r="J17">
-        <v>0.9063590043528957</v>
+        <v>1.05710105238935</v>
       </c>
       <c r="K17">
-        <v>0.9103485955857405</v>
+        <v>1.054139122446916</v>
       </c>
       <c r="L17">
-        <v>0.9145404372298193</v>
+        <v>1.058551087256864</v>
       </c>
       <c r="M17">
-        <v>0.9020726479012794</v>
+        <v>1.062833704697344</v>
       </c>
       <c r="N17">
-        <v>0.9076461380999077</v>
+        <v>1.058602257134929</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.880613116688197</v>
+        <v>1.051856128850742</v>
       </c>
       <c r="D18">
-        <v>0.8975758414831295</v>
+        <v>1.05158986895532</v>
       </c>
       <c r="E18">
-        <v>0.9018434100215459</v>
+        <v>1.056010576725281</v>
       </c>
       <c r="F18">
-        <v>0.8891475554649447</v>
+        <v>1.060375005787006</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.02502125094021</v>
+        <v>1.026678632615597</v>
       </c>
       <c r="J18">
-        <v>0.9063590043528957</v>
+        <v>1.057855667807477</v>
       </c>
       <c r="K18">
-        <v>0.9103485955857405</v>
+        <v>1.054861063425544</v>
       </c>
       <c r="L18">
-        <v>0.9145404372298193</v>
+        <v>1.059267127074994</v>
       </c>
       <c r="M18">
-        <v>0.9020726479012794</v>
+        <v>1.063617229764502</v>
       </c>
       <c r="N18">
-        <v>0.9076461380999077</v>
+        <v>1.059357944193505</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.880613116688197</v>
+        <v>1.052140971500413</v>
       </c>
       <c r="D19">
-        <v>0.8975758414831295</v>
+        <v>1.051850301006893</v>
       </c>
       <c r="E19">
-        <v>0.9018434100215459</v>
+        <v>1.056268871513451</v>
       </c>
       <c r="F19">
-        <v>0.8891475554649447</v>
+        <v>1.060656132279898</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.02502125094021</v>
+        <v>1.026710534143189</v>
       </c>
       <c r="J19">
-        <v>0.9063590043528957</v>
+        <v>1.058112271289886</v>
       </c>
       <c r="K19">
-        <v>0.9103485955857405</v>
+        <v>1.055106567777926</v>
       </c>
       <c r="L19">
-        <v>0.9145404372298193</v>
+        <v>1.059510575809933</v>
       </c>
       <c r="M19">
-        <v>0.9020726479012794</v>
+        <v>1.063883508849801</v>
       </c>
       <c r="N19">
-        <v>0.9076461380999077</v>
+        <v>1.059614912082292</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.880613116688197</v>
+        <v>1.050864243100124</v>
       </c>
       <c r="D20">
-        <v>0.8975758414831295</v>
+        <v>1.050682978498503</v>
       </c>
       <c r="E20">
-        <v>0.9018434100215459</v>
+        <v>1.055110936354836</v>
       </c>
       <c r="F20">
-        <v>0.8891475554649447</v>
+        <v>1.059395368441283</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.02502125094021</v>
+        <v>1.026566859970232</v>
       </c>
       <c r="J20">
-        <v>0.9063590043528957</v>
+        <v>1.056961911987049</v>
       </c>
       <c r="K20">
-        <v>0.9103485955857405</v>
+        <v>1.054006012299225</v>
       </c>
       <c r="L20">
-        <v>0.9145404372298193</v>
+        <v>1.058419041905478</v>
       </c>
       <c r="M20">
-        <v>0.9020726479012794</v>
+        <v>1.062689160016047</v>
       </c>
       <c r="N20">
-        <v>0.9076461380999077</v>
+        <v>1.058462919137297</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.880613116688197</v>
+        <v>1.046662296382254</v>
       </c>
       <c r="D21">
-        <v>0.8975758414831295</v>
+        <v>1.046840974735528</v>
       </c>
       <c r="E21">
-        <v>0.9018434100215459</v>
+        <v>1.051296423318575</v>
       </c>
       <c r="F21">
-        <v>0.8891475554649447</v>
+        <v>1.055233715712502</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02502125094021</v>
+        <v>1.026081950332214</v>
       </c>
       <c r="J21">
-        <v>0.9063590043528957</v>
+        <v>1.053172240128662</v>
       </c>
       <c r="K21">
-        <v>0.9103485955857405</v>
+        <v>1.050381228828609</v>
       </c>
       <c r="L21">
-        <v>0.9145404372298193</v>
+        <v>1.054820549172362</v>
       </c>
       <c r="M21">
-        <v>0.9020726479012794</v>
+        <v>1.058743714087457</v>
       </c>
       <c r="N21">
-        <v>0.9076461380999077</v>
+        <v>1.054667865510189</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.880613116688197</v>
+        <v>1.043979588504024</v>
       </c>
       <c r="D22">
-        <v>0.8975758414831295</v>
+        <v>1.044387977855773</v>
       </c>
       <c r="E22">
-        <v>0.9018434100215459</v>
+        <v>1.048858355842908</v>
       </c>
       <c r="F22">
-        <v>0.8891475554649447</v>
+        <v>1.052567304461876</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.02502125094021</v>
+        <v>1.025763160978784</v>
       </c>
       <c r="J22">
-        <v>0.9063590043528957</v>
+        <v>1.050749955609426</v>
       </c>
       <c r="K22">
-        <v>0.9103485955857405</v>
+        <v>1.048064967733674</v>
       </c>
       <c r="L22">
-        <v>0.9145404372298193</v>
+        <v>1.052518455139343</v>
       </c>
       <c r="M22">
-        <v>0.9020726479012794</v>
+        <v>1.056213510676665</v>
       </c>
       <c r="N22">
-        <v>0.9076461380999077</v>
+        <v>1.052242141069096</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.880613116688197</v>
+        <v>1.045405710817983</v>
       </c>
       <c r="D23">
-        <v>0.8975758414831295</v>
+        <v>1.045691994384902</v>
       </c>
       <c r="E23">
-        <v>0.9018434100215459</v>
+        <v>1.050154683523342</v>
       </c>
       <c r="F23">
-        <v>0.8891475554649447</v>
+        <v>1.053985653716602</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.02502125094021</v>
+        <v>1.025933492564635</v>
       </c>
       <c r="J23">
-        <v>0.9063590043528957</v>
+        <v>1.052037900707913</v>
       </c>
       <c r="K23">
-        <v>0.9103485955857405</v>
+        <v>1.049296479981049</v>
       </c>
       <c r="L23">
-        <v>0.9145404372298193</v>
+        <v>1.053742683386482</v>
       </c>
       <c r="M23">
-        <v>0.9020726479012794</v>
+        <v>1.057559624574062</v>
       </c>
       <c r="N23">
-        <v>0.9076461380999077</v>
+        <v>1.053531915197352</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.880613116688197</v>
+        <v>1.050934020462288</v>
       </c>
       <c r="D24">
-        <v>0.8975758414831295</v>
+        <v>1.050746776988141</v>
       </c>
       <c r="E24">
-        <v>0.9018434100215459</v>
+        <v>1.055174234525287</v>
       </c>
       <c r="F24">
-        <v>0.8891475554649447</v>
+        <v>1.0594643190914</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.02502125094021</v>
+        <v>1.026574757485799</v>
       </c>
       <c r="J24">
-        <v>0.9063590043528957</v>
+        <v>1.057024796443368</v>
       </c>
       <c r="K24">
-        <v>0.9103485955857405</v>
+        <v>1.054066171171111</v>
       </c>
       <c r="L24">
-        <v>0.9145404372298193</v>
+        <v>1.058478720436655</v>
       </c>
       <c r="M24">
-        <v>0.9020726479012794</v>
+        <v>1.062754489763549</v>
       </c>
       <c r="N24">
-        <v>0.9076461380999077</v>
+        <v>1.058525892896756</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.880613116688197</v>
+        <v>1.057181629104521</v>
       </c>
       <c r="D25">
-        <v>0.8975758414831295</v>
+        <v>1.056458798158188</v>
       </c>
       <c r="E25">
-        <v>0.9018434100215459</v>
+        <v>1.060835329612098</v>
       </c>
       <c r="F25">
-        <v>0.8891475554649447</v>
+        <v>1.065615848442761</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.02502125094021</v>
+        <v>1.027259971686622</v>
       </c>
       <c r="J25">
-        <v>0.9063590043528957</v>
+        <v>1.062648698139201</v>
       </c>
       <c r="K25">
-        <v>0.9103485955857405</v>
+        <v>1.059447787359118</v>
       </c>
       <c r="L25">
-        <v>0.9145404372298193</v>
+        <v>1.063811204125454</v>
       </c>
       <c r="M25">
-        <v>0.9020726479012794</v>
+        <v>1.068577531698473</v>
       </c>
       <c r="N25">
-        <v>0.9076461380999077</v>
+        <v>1.064157781178068</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_212/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_212/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.062039498880902</v>
+        <v>0.8667929700279945</v>
       </c>
       <c r="D2">
-        <v>1.060899797914149</v>
+        <v>0.8851299376759676</v>
       </c>
       <c r="E2">
-        <v>1.065227820450102</v>
+        <v>0.8892048892920762</v>
       </c>
       <c r="F2">
-        <v>1.070366925779918</v>
+        <v>0.8746144324774117</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.027760580862774</v>
+        <v>1.0223130473867</v>
       </c>
       <c r="J2">
-        <v>1.067012076820579</v>
+        <v>0.8938462744473538</v>
       </c>
       <c r="K2">
-        <v>1.063625321556726</v>
+        <v>0.898461152806436</v>
       </c>
       <c r="L2">
-        <v>1.06794162736605</v>
+        <v>0.9024588924097431</v>
       </c>
       <c r="M2">
-        <v>1.073066953298517</v>
+        <v>0.888149259245325</v>
       </c>
       <c r="N2">
-        <v>1.06852735635766</v>
+        <v>0.8951156386826697</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.065498731364662</v>
+        <v>0.9041509310779421</v>
       </c>
       <c r="D3">
-        <v>1.064061909235623</v>
+        <v>0.9187914626641446</v>
       </c>
       <c r="E3">
-        <v>1.068350223308369</v>
+        <v>0.9233576832563165</v>
       </c>
       <c r="F3">
-        <v>1.073731499996781</v>
+        <v>0.9137992255004294</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.028098158500023</v>
+        <v>1.029614080885042</v>
       </c>
       <c r="J3">
-        <v>1.070113658257546</v>
+        <v>0.927645594693733</v>
       </c>
       <c r="K3">
-        <v>1.066596039514865</v>
+        <v>0.9305809007246063</v>
       </c>
       <c r="L3">
-        <v>1.070873631715965</v>
+        <v>0.9350751900143183</v>
       </c>
       <c r="M3">
-        <v>1.076241584240708</v>
+        <v>0.9256683610825814</v>
       </c>
       <c r="N3">
-        <v>1.071633342396024</v>
+        <v>0.928962957840635</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.067707034638981</v>
+        <v>0.9239657898736575</v>
       </c>
       <c r="D4">
-        <v>1.066080400508695</v>
+        <v>0.9366676990248104</v>
       </c>
       <c r="E4">
-        <v>1.070340970312035</v>
+        <v>0.9414540787289294</v>
       </c>
       <c r="F4">
-        <v>1.075870741121192</v>
+        <v>0.9344441861098164</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.028304821017455</v>
+        <v>1.03344347882112</v>
       </c>
       <c r="J4">
-        <v>1.072091078032288</v>
+        <v>0.9455369367126123</v>
       </c>
       <c r="K4">
-        <v>1.06849060170308</v>
+        <v>0.947595773384145</v>
       </c>
       <c r="L4">
-        <v>1.072741083629925</v>
+        <v>0.9523145296312644</v>
       </c>
       <c r="M4">
-        <v>1.078257889241557</v>
+        <v>0.9454039732199357</v>
       </c>
       <c r="N4">
-        <v>1.07361357033366</v>
+        <v>0.9468797076173467</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.06862841044887</v>
+        <v>0.9315878608076231</v>
       </c>
       <c r="D5">
-        <v>1.066922546567713</v>
+        <v>0.9435476563985739</v>
       </c>
       <c r="E5">
-        <v>1.071170965299074</v>
+        <v>0.9484104559034471</v>
       </c>
       <c r="F5">
-        <v>1.07676122758596</v>
+        <v>0.9423569285853055</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.02838891310831</v>
+        <v>1.034903107526435</v>
       </c>
       <c r="J5">
-        <v>1.072915505049633</v>
+        <v>0.952411100403058</v>
       </c>
       <c r="K5">
-        <v>1.069280621803646</v>
+        <v>0.9541356535105954</v>
       </c>
       <c r="L5">
-        <v>1.073519216799699</v>
+        <v>0.9589327312898293</v>
       </c>
       <c r="M5">
-        <v>1.079096679093159</v>
+        <v>0.952961148765612</v>
       </c>
       <c r="N5">
-        <v>1.074439168131932</v>
+        <v>0.9537636334087105</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.068782708964313</v>
+        <v>0.9328322861921315</v>
       </c>
       <c r="D6">
-        <v>1.067063574805807</v>
+        <v>0.9446710994863945</v>
       </c>
       <c r="E6">
-        <v>1.071309924832661</v>
+        <v>0.9495459168410431</v>
       </c>
       <c r="F6">
-        <v>1.07691023122941</v>
+        <v>0.9436472154517894</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.028402869827211</v>
+        <v>1.035140561917677</v>
       </c>
       <c r="J6">
-        <v>1.073053531736199</v>
+        <v>0.9535329596358993</v>
       </c>
       <c r="K6">
-        <v>1.069412896161508</v>
+        <v>0.95520309264686</v>
       </c>
       <c r="L6">
-        <v>1.073649466661693</v>
+        <v>0.9600125109086241</v>
       </c>
       <c r="M6">
-        <v>1.079237001609822</v>
+        <v>0.954193052729404</v>
       </c>
       <c r="N6">
-        <v>1.074577390832225</v>
+        <v>0.9548870858103413</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.067719373333542</v>
+        <v>0.924070123126045</v>
       </c>
       <c r="D7">
-        <v>1.066091678326313</v>
+        <v>0.9367618609971066</v>
       </c>
       <c r="E7">
-        <v>1.070352087677126</v>
+        <v>0.9415493188586899</v>
       </c>
       <c r="F7">
-        <v>1.075882674343561</v>
+        <v>0.9345526096303666</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.028305955580028</v>
+        <v>1.033463516013487</v>
       </c>
       <c r="J7">
-        <v>1.07210212086123</v>
+        <v>0.9456310641351787</v>
       </c>
       <c r="K7">
-        <v>1.068501183121605</v>
+        <v>0.9476853140048429</v>
       </c>
       <c r="L7">
-        <v>1.072751508134857</v>
+        <v>0.952405173561091</v>
       </c>
       <c r="M7">
-        <v>1.078269131756515</v>
+        <v>0.9455075525584441</v>
       </c>
       <c r="N7">
-        <v>1.073624628844685</v>
+        <v>0.94697396871165</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.063214907838218</v>
+        <v>0.8806131166881914</v>
       </c>
       <c r="D8">
-        <v>1.061974275892833</v>
+        <v>0.8975758414831244</v>
       </c>
       <c r="E8">
-        <v>1.066289305463967</v>
+        <v>0.9018434100215409</v>
       </c>
       <c r="F8">
-        <v>1.071511971231653</v>
+        <v>0.8891475554649396</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.027877122865667</v>
+        <v>1.025021250940209</v>
       </c>
       <c r="J8">
-        <v>1.068066494930347</v>
+        <v>0.9063590043528903</v>
       </c>
       <c r="K8">
-        <v>1.064635131215362</v>
+        <v>0.9103485955857356</v>
       </c>
       <c r="L8">
-        <v>1.068938782257584</v>
+        <v>0.9145404372298144</v>
       </c>
       <c r="M8">
-        <v>1.074147808453698</v>
+        <v>0.9020726479012745</v>
       </c>
       <c r="N8">
-        <v>1.069583271862087</v>
+        <v>0.9076461380999022</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.055037920347559</v>
+        <v>0.8806131166881914</v>
       </c>
       <c r="D9">
-        <v>1.054498924588384</v>
+        <v>0.8975758414831244</v>
       </c>
       <c r="E9">
-        <v>1.058894327069477</v>
+        <v>0.9018434100215409</v>
       </c>
       <c r="F9">
-        <v>1.063510135461595</v>
+        <v>0.8891475554649396</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.027029869630035</v>
+        <v>1.025021250940209</v>
       </c>
       <c r="J9">
-        <v>1.060720490415538</v>
+        <v>0.9063590043528903</v>
       </c>
       <c r="K9">
-        <v>1.057602314317832</v>
+        <v>0.9103485955857356</v>
       </c>
       <c r="L9">
-        <v>1.061983985809324</v>
+        <v>0.9145404372298144</v>
       </c>
       <c r="M9">
-        <v>1.066585508068448</v>
+        <v>0.9020726479012745</v>
       </c>
       <c r="N9">
-        <v>1.062226835178269</v>
+        <v>0.9076461380999022</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.049411762072623</v>
+        <v>0.8806131166881914</v>
       </c>
       <c r="D10">
-        <v>1.049354940323541</v>
+        <v>0.8975758414831244</v>
       </c>
       <c r="E10">
-        <v>1.053792983268282</v>
+        <v>0.9018434100215409</v>
       </c>
       <c r="F10">
-        <v>1.057958910695703</v>
+        <v>0.8891475554649396</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.026401297602511</v>
+        <v>1.025021250940209</v>
       </c>
       <c r="J10">
-        <v>1.055652561938521</v>
+        <v>0.9063590043528903</v>
       </c>
       <c r="K10">
-        <v>1.052753492176318</v>
+        <v>0.9103485955857356</v>
       </c>
       <c r="L10">
-        <v>1.057176191353614</v>
+        <v>0.9145404372298144</v>
       </c>
       <c r="M10">
-        <v>1.061327844622511</v>
+        <v>0.9020726479012745</v>
       </c>
       <c r="N10">
-        <v>1.057151709661515</v>
+        <v>0.9076461380999022</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.046930836112355</v>
+        <v>0.8806131166881914</v>
       </c>
       <c r="D11">
-        <v>1.047086516638081</v>
+        <v>0.8975758414831244</v>
       </c>
       <c r="E11">
-        <v>1.051540360468183</v>
+        <v>0.9018434100215409</v>
       </c>
       <c r="F11">
-        <v>1.055500227492829</v>
+        <v>0.8891475554649396</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026113475722859</v>
+        <v>1.025021250940209</v>
       </c>
       <c r="J11">
-        <v>1.053414594055205</v>
+        <v>0.9063590043528903</v>
       </c>
       <c r="K11">
-        <v>1.050613001414127</v>
+        <v>0.9103485955857356</v>
       </c>
       <c r="L11">
-        <v>1.055050793492065</v>
+        <v>0.9145404372298144</v>
       </c>
       <c r="M11">
-        <v>1.058996514564633</v>
+        <v>0.9020726479012745</v>
       </c>
       <c r="N11">
-        <v>1.054910563607106</v>
+        <v>0.9076461380999022</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.046002289135736</v>
+        <v>0.8806131166881914</v>
       </c>
       <c r="D12">
-        <v>1.046237487754847</v>
+        <v>0.8975758414831244</v>
       </c>
       <c r="E12">
-        <v>1.050696794293894</v>
+        <v>0.9018434100215409</v>
       </c>
       <c r="F12">
-        <v>1.054578382908434</v>
+        <v>0.8891475554649396</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026004166662352</v>
+        <v>1.025021250940209</v>
       </c>
       <c r="J12">
-        <v>1.052576499725328</v>
+        <v>0.9063590043528903</v>
       </c>
       <c r="K12">
-        <v>1.049811519557837</v>
+        <v>0.9103485955857356</v>
       </c>
       <c r="L12">
-        <v>1.05425451000126</v>
+        <v>0.9145404372298144</v>
       </c>
       <c r="M12">
-        <v>1.05812202038228</v>
+        <v>0.9020726479012745</v>
       </c>
       <c r="N12">
-        <v>1.05407127908715</v>
+        <v>0.9076461380999022</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.04620178823427</v>
+        <v>0.8806131166881914</v>
       </c>
       <c r="D13">
-        <v>1.046419903021902</v>
+        <v>0.8975758414831244</v>
       </c>
       <c r="E13">
-        <v>1.050878056292221</v>
+        <v>0.9018434100215409</v>
       </c>
       <c r="F13">
-        <v>1.05477651534342</v>
+        <v>0.8891475554649396</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.026027723210624</v>
+        <v>1.025021250940209</v>
       </c>
       <c r="J13">
-        <v>1.052756586703609</v>
+        <v>0.9063590043528903</v>
       </c>
       <c r="K13">
-        <v>1.04998373446759</v>
+        <v>0.9103485955857356</v>
       </c>
       <c r="L13">
-        <v>1.054425628405317</v>
+        <v>0.9145404372298144</v>
       </c>
       <c r="M13">
-        <v>1.058309993760818</v>
+        <v>0.9020726479012745</v>
       </c>
       <c r="N13">
-        <v>1.054251621809597</v>
+        <v>0.9076461380999022</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.046854227113049</v>
+        <v>0.8806131166881914</v>
       </c>
       <c r="D14">
-        <v>1.047016468529913</v>
+        <v>0.8975758414831244</v>
       </c>
       <c r="E14">
-        <v>1.051470772239406</v>
+        <v>0.9018434100215409</v>
       </c>
       <c r="F14">
-        <v>1.055424204490692</v>
+        <v>0.8891475554649396</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.026104489436773</v>
+        <v>1.025021250940209</v>
       </c>
       <c r="J14">
-        <v>1.053345457549602</v>
+        <v>0.9063590043528903</v>
       </c>
       <c r="K14">
-        <v>1.050546882957989</v>
+        <v>0.9103485955857356</v>
       </c>
       <c r="L14">
-        <v>1.054985113091988</v>
+        <v>0.9145404372298144</v>
       </c>
       <c r="M14">
-        <v>1.058924404569219</v>
+        <v>0.9020726479012745</v>
       </c>
       <c r="N14">
-        <v>1.054841328919735</v>
+        <v>0.9076461380999022</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.047255276831293</v>
+        <v>0.8806131166881914</v>
       </c>
       <c r="D15">
-        <v>1.047383171200181</v>
+        <v>0.8975758414831244</v>
       </c>
       <c r="E15">
-        <v>1.051835049010283</v>
+        <v>0.9018434100215409</v>
       </c>
       <c r="F15">
-        <v>1.055822120256954</v>
+        <v>0.8891475554649396</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026151468218869</v>
+        <v>1.025021250940209</v>
       </c>
       <c r="J15">
-        <v>1.053707368998242</v>
+        <v>0.9063590043528903</v>
       </c>
       <c r="K15">
-        <v>1.050893000134044</v>
+        <v>0.9103485955857356</v>
       </c>
       <c r="L15">
-        <v>1.055328918641205</v>
+        <v>0.9145404372298144</v>
       </c>
       <c r="M15">
-        <v>1.059301822820091</v>
+        <v>0.9020726479012745</v>
       </c>
       <c r="N15">
-        <v>1.055203754324144</v>
+        <v>0.9076461380999022</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.049575444997431</v>
+        <v>0.8806131166881914</v>
       </c>
       <c r="D16">
-        <v>1.049504600751038</v>
+        <v>0.8975758414831244</v>
       </c>
       <c r="E16">
-        <v>1.05394153840813</v>
+        <v>0.9018434100215409</v>
       </c>
       <c r="F16">
-        <v>1.058120900239524</v>
+        <v>0.8891475554649396</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.026420065676154</v>
+        <v>1.025021250940209</v>
       </c>
       <c r="J16">
-        <v>1.055800148431029</v>
+        <v>0.9063590043528903</v>
       </c>
       <c r="K16">
-        <v>1.052894665454154</v>
+        <v>0.9103485955857356</v>
       </c>
       <c r="L16">
-        <v>1.057316306134181</v>
+        <v>0.9145404372298144</v>
       </c>
       <c r="M16">
-        <v>1.061481388026169</v>
+        <v>0.9020726479012745</v>
       </c>
       <c r="N16">
-        <v>1.057299505743771</v>
+        <v>0.9076461380999022</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.051018637315916</v>
+        <v>0.8806131166881914</v>
       </c>
       <c r="D17">
-        <v>1.050824143368992</v>
+        <v>0.8975758414831244</v>
       </c>
       <c r="E17">
-        <v>1.055250992221271</v>
+        <v>0.9018434100215409</v>
       </c>
       <c r="F17">
-        <v>1.059547926353391</v>
+        <v>0.8891475554649396</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.026584327587963</v>
+        <v>1.025021250940209</v>
       </c>
       <c r="J17">
-        <v>1.05710105238935</v>
+        <v>0.9063590043528903</v>
       </c>
       <c r="K17">
-        <v>1.054139122446916</v>
+        <v>0.9103485955857356</v>
       </c>
       <c r="L17">
-        <v>1.058551087256864</v>
+        <v>0.9145404372298144</v>
       </c>
       <c r="M17">
-        <v>1.062833704697344</v>
+        <v>0.9020726479012745</v>
       </c>
       <c r="N17">
-        <v>1.058602257134929</v>
+        <v>0.9076461380999022</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.051856128850742</v>
+        <v>0.8806131166881914</v>
       </c>
       <c r="D18">
-        <v>1.05158986895532</v>
+        <v>0.8975758414831244</v>
       </c>
       <c r="E18">
-        <v>1.056010576725281</v>
+        <v>0.9018434100215409</v>
       </c>
       <c r="F18">
-        <v>1.060375005787006</v>
+        <v>0.8891475554649396</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.026678632615597</v>
+        <v>1.025021250940209</v>
       </c>
       <c r="J18">
-        <v>1.057855667807477</v>
+        <v>0.9063590043528903</v>
       </c>
       <c r="K18">
-        <v>1.054861063425544</v>
+        <v>0.9103485955857356</v>
       </c>
       <c r="L18">
-        <v>1.059267127074994</v>
+        <v>0.9145404372298144</v>
       </c>
       <c r="M18">
-        <v>1.063617229764502</v>
+        <v>0.9020726479012745</v>
       </c>
       <c r="N18">
-        <v>1.059357944193505</v>
+        <v>0.9076461380999022</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.052140971500413</v>
+        <v>0.8806131166881914</v>
       </c>
       <c r="D19">
-        <v>1.051850301006893</v>
+        <v>0.8975758414831244</v>
       </c>
       <c r="E19">
-        <v>1.056268871513451</v>
+        <v>0.9018434100215409</v>
       </c>
       <c r="F19">
-        <v>1.060656132279898</v>
+        <v>0.8891475554649396</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.026710534143189</v>
+        <v>1.025021250940209</v>
       </c>
       <c r="J19">
-        <v>1.058112271289886</v>
+        <v>0.9063590043528903</v>
       </c>
       <c r="K19">
-        <v>1.055106567777926</v>
+        <v>0.9103485955857356</v>
       </c>
       <c r="L19">
-        <v>1.059510575809933</v>
+        <v>0.9145404372298144</v>
       </c>
       <c r="M19">
-        <v>1.063883508849801</v>
+        <v>0.9020726479012745</v>
       </c>
       <c r="N19">
-        <v>1.059614912082292</v>
+        <v>0.9076461380999022</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.050864243100124</v>
+        <v>0.8806131166881914</v>
       </c>
       <c r="D20">
-        <v>1.050682978498503</v>
+        <v>0.8975758414831244</v>
       </c>
       <c r="E20">
-        <v>1.055110936354836</v>
+        <v>0.9018434100215409</v>
       </c>
       <c r="F20">
-        <v>1.059395368441283</v>
+        <v>0.8891475554649396</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.026566859970232</v>
+        <v>1.025021250940209</v>
       </c>
       <c r="J20">
-        <v>1.056961911987049</v>
+        <v>0.9063590043528903</v>
       </c>
       <c r="K20">
-        <v>1.054006012299225</v>
+        <v>0.9103485955857356</v>
       </c>
       <c r="L20">
-        <v>1.058419041905478</v>
+        <v>0.9145404372298144</v>
       </c>
       <c r="M20">
-        <v>1.062689160016047</v>
+        <v>0.9020726479012745</v>
       </c>
       <c r="N20">
-        <v>1.058462919137297</v>
+        <v>0.9076461380999022</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.046662296382254</v>
+        <v>0.8806131166881914</v>
       </c>
       <c r="D21">
-        <v>1.046840974735528</v>
+        <v>0.8975758414831244</v>
       </c>
       <c r="E21">
-        <v>1.051296423318575</v>
+        <v>0.9018434100215409</v>
       </c>
       <c r="F21">
-        <v>1.055233715712502</v>
+        <v>0.8891475554649396</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026081950332214</v>
+        <v>1.025021250940209</v>
       </c>
       <c r="J21">
-        <v>1.053172240128662</v>
+        <v>0.9063590043528903</v>
       </c>
       <c r="K21">
-        <v>1.050381228828609</v>
+        <v>0.9103485955857356</v>
       </c>
       <c r="L21">
-        <v>1.054820549172362</v>
+        <v>0.9145404372298144</v>
       </c>
       <c r="M21">
-        <v>1.058743714087457</v>
+        <v>0.9020726479012745</v>
       </c>
       <c r="N21">
-        <v>1.054667865510189</v>
+        <v>0.9076461380999022</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.043979588504024</v>
+        <v>0.8806131166881914</v>
       </c>
       <c r="D22">
-        <v>1.044387977855773</v>
+        <v>0.8975758414831244</v>
       </c>
       <c r="E22">
-        <v>1.048858355842908</v>
+        <v>0.9018434100215409</v>
       </c>
       <c r="F22">
-        <v>1.052567304461876</v>
+        <v>0.8891475554649396</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.025763160978784</v>
+        <v>1.025021250940209</v>
       </c>
       <c r="J22">
-        <v>1.050749955609426</v>
+        <v>0.9063590043528903</v>
       </c>
       <c r="K22">
-        <v>1.048064967733674</v>
+        <v>0.9103485955857356</v>
       </c>
       <c r="L22">
-        <v>1.052518455139343</v>
+        <v>0.9145404372298144</v>
       </c>
       <c r="M22">
-        <v>1.056213510676665</v>
+        <v>0.9020726479012745</v>
       </c>
       <c r="N22">
-        <v>1.052242141069096</v>
+        <v>0.9076461380999022</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.045405710817983</v>
+        <v>0.8806131166881914</v>
       </c>
       <c r="D23">
-        <v>1.045691994384902</v>
+        <v>0.8975758414831244</v>
       </c>
       <c r="E23">
-        <v>1.050154683523342</v>
+        <v>0.9018434100215409</v>
       </c>
       <c r="F23">
-        <v>1.053985653716602</v>
+        <v>0.8891475554649396</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025933492564635</v>
+        <v>1.025021250940209</v>
       </c>
       <c r="J23">
-        <v>1.052037900707913</v>
+        <v>0.9063590043528903</v>
       </c>
       <c r="K23">
-        <v>1.049296479981049</v>
+        <v>0.9103485955857356</v>
       </c>
       <c r="L23">
-        <v>1.053742683386482</v>
+        <v>0.9145404372298144</v>
       </c>
       <c r="M23">
-        <v>1.057559624574062</v>
+        <v>0.9020726479012745</v>
       </c>
       <c r="N23">
-        <v>1.053531915197352</v>
+        <v>0.9076461380999022</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.050934020462288</v>
+        <v>0.8806131166881914</v>
       </c>
       <c r="D24">
-        <v>1.050746776988141</v>
+        <v>0.8975758414831244</v>
       </c>
       <c r="E24">
-        <v>1.055174234525287</v>
+        <v>0.9018434100215409</v>
       </c>
       <c r="F24">
-        <v>1.0594643190914</v>
+        <v>0.8891475554649396</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.026574757485799</v>
+        <v>1.025021250940209</v>
       </c>
       <c r="J24">
-        <v>1.057024796443368</v>
+        <v>0.9063590043528903</v>
       </c>
       <c r="K24">
-        <v>1.054066171171111</v>
+        <v>0.9103485955857356</v>
       </c>
       <c r="L24">
-        <v>1.058478720436655</v>
+        <v>0.9145404372298144</v>
       </c>
       <c r="M24">
-        <v>1.062754489763549</v>
+        <v>0.9020726479012745</v>
       </c>
       <c r="N24">
-        <v>1.058525892896756</v>
+        <v>0.9076461380999022</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.057181629104521</v>
+        <v>0.8806131166881914</v>
       </c>
       <c r="D25">
-        <v>1.056458798158188</v>
+        <v>0.8975758414831244</v>
       </c>
       <c r="E25">
-        <v>1.060835329612098</v>
+        <v>0.9018434100215409</v>
       </c>
       <c r="F25">
-        <v>1.065615848442761</v>
+        <v>0.8891475554649396</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.027259971686622</v>
+        <v>1.025021250940209</v>
       </c>
       <c r="J25">
-        <v>1.062648698139201</v>
+        <v>0.9063590043528903</v>
       </c>
       <c r="K25">
-        <v>1.059447787359118</v>
+        <v>0.9103485955857356</v>
       </c>
       <c r="L25">
-        <v>1.063811204125454</v>
+        <v>0.9145404372298144</v>
       </c>
       <c r="M25">
-        <v>1.068577531698473</v>
+        <v>0.9020726479012745</v>
       </c>
       <c r="N25">
-        <v>1.064157781178068</v>
+        <v>0.9076461380999022</v>
       </c>
     </row>
   </sheetData>
